--- a/TrainHelper.WebApi/ReportTemplates/NL_Template.xlsx
+++ b/TrainHelper.WebApi/ReportTemplates/NL_Template.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Тестовое\Тестовое задание для программиста систем отчетности\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\dev\Test tasks\СофтМастерс\TrainHelper\TrainHelper.WebApi\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA8BBCB-AAB6-4977-A091-E4181896336D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Натурный лист поезда" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Натурный лист поезда'!$1:$6</definedName>
     <definedName name="Print_Titles_0" localSheetId="0">'Натурный лист поезда'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Натурный лист поезда'!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -73,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -152,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -169,9 +168,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -184,9 +180,16 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -497,53 +500,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:ALZ28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="2"/>
-    <col min="8" max="1014" width="9.109375" style="1" customWidth="1"/>
-    <col min="1015" max="1025" width="11.5546875"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="2"/>
+    <col min="8" max="1014" width="9.140625" style="1" customWidth="1"/>
+    <col min="1015" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+    <row r="2" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -553,10 +556,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -566,19 +569,19 @@
         <v>4</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+    <row r="5" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:19" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -594,14 +597,14 @@
       <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
@@ -609,7 +612,7 @@
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.196527777777778" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555496" footer="0.31527777777777799"/>
-  <pageSetup paperSize="9" firstPageNumber="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Times New Roman,Обычный"ОАО "Терминал Астафьева"&amp;C&amp;"Times New Roman,Обычный"Распечатано: &amp;D &amp;T&amp;R&amp;"Times New Roman,Обычный"Страница &amp;P/&amp;N</oddFooter>
   </headerFooter>
